--- a/Datasheet/ComponentsNeeded.xlsx
+++ b/Datasheet/ComponentsNeeded.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F7E9B7-777E-4A69-B747-0875DE6B2D90}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Component</t>
   </si>
@@ -133,27 +132,9 @@
     <t>Cin</t>
   </si>
   <si>
-    <t>1800uF</t>
-  </si>
-  <si>
-    <t>https://dk.rs-online.com/web/p/aluminium-kondensatorer/7714743/</t>
-  </si>
-  <si>
-    <t>https://docs-emea.rs-online.com/webdocs/13c1/0900766b813c1f88.pdf</t>
-  </si>
-  <si>
     <t>Cout</t>
   </si>
   <si>
-    <t>800uF</t>
-  </si>
-  <si>
-    <t>https://dk.rs-online.com/web/p/aluminium-kondensatorer/7497338/</t>
-  </si>
-  <si>
-    <t>https://docs-emea.rs-online.com/webdocs/1030/0900766b810305ec.pdf</t>
-  </si>
-  <si>
     <t>Heat Sink</t>
   </si>
   <si>
@@ -173,12 +154,36 @@
   </si>
   <si>
     <t>Protection Diodes</t>
+  </si>
+  <si>
+    <t>470 uF</t>
+  </si>
+  <si>
+    <t>https://docs-emea.rs-online.com/webdocs/1489/0900766b8148953c.pdf</t>
+  </si>
+  <si>
+    <t>https://dk.rs-online.com/web/p/aluminium-kondensatorer/3151101/</t>
+  </si>
+  <si>
+    <t>https://dk.rs-online.com/web/p/aluminium-kondensatorer/8714035/</t>
+  </si>
+  <si>
+    <t>https://docs-emea.rs-online.com/webdocs/13e5/0900766b813e53d3.pdf</t>
+  </si>
+  <si>
+    <t>820 uF</t>
+  </si>
+  <si>
+    <t>https://dk.rs-online.com/web/p/dioder-ensretter-og-schottky-dioder/8184370/</t>
+  </si>
+  <si>
+    <t>https://docs-emea.rs-online.com/webdocs/1301/0900766b813012df.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -252,6 +257,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -532,24 +538,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,10 +569,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -583,7 +589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -600,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -617,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -634,7 +640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -651,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -668,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -685,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -702,95 +708,107 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="C15" s="5"/>
+      <c r="D15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{D9AAA3E0-4B89-4B5C-86E5-B40C0DC67EE5}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{0B2D29B4-5C72-4DFE-A1D1-40013C6663AB}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{C039B358-A525-4D61-97C4-B657BC8EB8E6}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{6E3351A8-2EBB-4F03-8EC5-6F8304854E5C}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{4A05CE8B-EEE9-4B6A-A15B-EC183C18295A}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{D1B16D46-4A35-4662-BC14-EFD5790910D9}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{DDB986C2-034F-43D4-9E6B-58FDE6258D53}"/>
-    <hyperlink ref="E6" r:id="rId8" xr:uid="{374CAE81-BB79-49B9-9F5C-283EA7F6B4B9}"/>
-    <hyperlink ref="D7" r:id="rId9" xr:uid="{503518AF-D13D-43A0-9BFE-C8F12C35573A}"/>
-    <hyperlink ref="E7" r:id="rId10" xr:uid="{3EF38BFE-CF35-47D7-AD37-C843F89B5B77}"/>
-    <hyperlink ref="D8" r:id="rId11" xr:uid="{862AFDF3-4819-4ACA-99F7-C7914931EDDE}"/>
-    <hyperlink ref="E8" r:id="rId12" xr:uid="{3594AE2D-0B95-4860-AA90-B164BE8DE7A0}"/>
-    <hyperlink ref="D9" r:id="rId13" xr:uid="{2DBF9538-3D24-4D68-9F07-62AF6FF18377}"/>
-    <hyperlink ref="E9" r:id="rId14" xr:uid="{0D6CEEFF-D5C4-4263-831C-8DA8C1A0B7CB}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{9895DD7A-5F81-46B3-BD1F-AD3799986EFC}"/>
-    <hyperlink ref="E10" r:id="rId16" xr:uid="{70B1F72A-9202-42EC-A691-5BDC4E3405F7}"/>
-    <hyperlink ref="D11" r:id="rId17" xr:uid="{3D2257CD-5A31-4CCF-8845-015E9B7D9135}"/>
-    <hyperlink ref="E11" r:id="rId18" xr:uid="{CC3376B4-76C1-4725-9268-C337759B9350}"/>
-    <hyperlink ref="D12" r:id="rId19" xr:uid="{C459562C-0109-4BB7-9668-C4F4DE06739D}"/>
-    <hyperlink ref="E12" r:id="rId20" xr:uid="{9127E767-F918-4521-A0C2-CF9377E45F16}"/>
-    <hyperlink ref="D13" r:id="rId21" xr:uid="{E9E3DD79-62CF-491C-830D-C28CBFC5C25B}"/>
-    <hyperlink ref="E13" r:id="rId22" xr:uid="{51768CCE-E515-4525-98AD-20637BCAA285}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="E5" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="E6" r:id="rId8"/>
+    <hyperlink ref="D7" r:id="rId9"/>
+    <hyperlink ref="E7" r:id="rId10"/>
+    <hyperlink ref="D8" r:id="rId11"/>
+    <hyperlink ref="E8" r:id="rId12"/>
+    <hyperlink ref="D9" r:id="rId13"/>
+    <hyperlink ref="E9" r:id="rId14"/>
+    <hyperlink ref="D10" r:id="rId15"/>
+    <hyperlink ref="E10" r:id="rId16"/>
+    <hyperlink ref="D13" r:id="rId17"/>
+    <hyperlink ref="E13" r:id="rId18"/>
+    <hyperlink ref="E11" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="E12" r:id="rId22"/>
+    <hyperlink ref="D15" r:id="rId23"/>
+    <hyperlink ref="E15" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/Datasheet/ComponentsNeeded.xlsx
+++ b/Datasheet/ComponentsNeeded.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756BAD9B-A929-4D25-917C-5C5EF8AA452D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Component</t>
   </si>
@@ -36,15 +37,6 @@
     <t>MOSFET</t>
   </si>
   <si>
-    <t>FDPF390N15A</t>
-  </si>
-  <si>
-    <t>https://dk.rs-online.com/web/p/mosfet-transistorer/8648603/</t>
-  </si>
-  <si>
-    <t>https://docs-emea.rs-online.com/webdocs/13c0/0900766b813c07df.pdf</t>
-  </si>
-  <si>
     <t>Drivers</t>
   </si>
   <si>
@@ -147,9 +139,6 @@
     <t>https://dk.rs-online.com/web/p/optoelektroniske-switches/9226652/</t>
   </si>
   <si>
-    <t>https://docs-emea.rs-online.com/webdocs/14ca/0900766b814cad79.pdf</t>
-  </si>
-  <si>
     <t>Min. number of units</t>
   </si>
   <si>
@@ -178,13 +167,67 @@
   </si>
   <si>
     <t>https://docs-emea.rs-online.com/webdocs/1301/0900766b813012df.pdf</t>
+  </si>
+  <si>
+    <t>FDD86250</t>
+  </si>
+  <si>
+    <t>https://dk.rs-online.com/web/p/mosfet-transistorer/7599484/</t>
+  </si>
+  <si>
+    <t>https://docs-emea.rs-online.com/webdocs/14f6/0900766b814f650c.pdf</t>
+  </si>
+  <si>
+    <t>Cfilter</t>
+  </si>
+  <si>
+    <t>100 nF</t>
+  </si>
+  <si>
+    <t>https://dk.rs-online.com/web/p/keramiske-flerlags-kondensatorer/5002376/</t>
+  </si>
+  <si>
+    <t>https://docs-emea.rs-online.com/webdocs/1515/0900766b815152a6.pdf</t>
+  </si>
+  <si>
+    <t>1 uF</t>
+  </si>
+  <si>
+    <t>https://dk.rs-online.com/web/p/keramiske-flerlags-kondensatorer/9163096/</t>
+  </si>
+  <si>
+    <t>https://docs-emea.rs-online.com/webdocs/14e8/0900766b814e8eee.pdf</t>
+  </si>
+  <si>
+    <t>TDEX6015/TH</t>
+  </si>
+  <si>
+    <t>https://dk.rs-online.com/web/p/koleplader/0158562/</t>
+  </si>
+  <si>
+    <t>https://docs-emea.rs-online.com/webdocs/0b05/0900766b80b0587d.pdf</t>
+  </si>
+  <si>
+    <t>VB20100C-E3</t>
+  </si>
+  <si>
+    <t>Zenner</t>
+  </si>
+  <si>
+    <t>BZX84C4V7LT1G</t>
+  </si>
+  <si>
+    <t>https://dk.rs-online.com/web/p/zenerdioder/5450624/</t>
+  </si>
+  <si>
+    <t>https://docs-emea.rs-online.com/webdocs/078e/0900766b8078eabb.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,19 +264,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -249,15 +291,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -538,24 +581,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="18">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,246 +612,313 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+    <row r="10" spans="2:6">
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F10">
+      <c r="C16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
+    <row r="17" spans="2:6">
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11">
+      <c r="E17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
+    <row r="18" spans="2:6">
+      <c r="B18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="D6" r:id="rId7"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="D7" r:id="rId9"/>
-    <hyperlink ref="E7" r:id="rId10"/>
-    <hyperlink ref="D8" r:id="rId11"/>
-    <hyperlink ref="E8" r:id="rId12"/>
-    <hyperlink ref="D9" r:id="rId13"/>
-    <hyperlink ref="E9" r:id="rId14"/>
-    <hyperlink ref="D10" r:id="rId15"/>
-    <hyperlink ref="E10" r:id="rId16"/>
-    <hyperlink ref="D13" r:id="rId17"/>
-    <hyperlink ref="E13" r:id="rId18"/>
-    <hyperlink ref="E11" r:id="rId19"/>
-    <hyperlink ref="D11" r:id="rId20"/>
-    <hyperlink ref="D12" r:id="rId21"/>
-    <hyperlink ref="E12" r:id="rId22"/>
-    <hyperlink ref="D15" r:id="rId23"/>
-    <hyperlink ref="E15" r:id="rId24"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{266647AC-2074-42CF-B886-011E46CC184A}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{AE702C93-9D46-4835-B3B4-013D34D30C1E}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{F11744CC-ACC1-4C2E-8816-1C386B3A64A7}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{41F5AF49-4DF6-4405-BB3D-37B4A2FD6861}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{BFA0CFE8-5573-4A98-A5D3-DBA45F3418E6}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{37284CB2-46D7-4A39-8C34-9DC354A81F5A}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{4F3591FC-1A81-4CE0-8CE6-AC32458CACBC}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{773FDB9D-8032-4F07-8C92-FF8998F02C86}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{D27EA0F2-5506-43E7-80CE-8B49F6ED100C}"/>
+    <hyperlink ref="E8" r:id="rId10" xr:uid="{CBB3C81D-9A1A-4E49-8814-3424A959548D}"/>
+    <hyperlink ref="D9" r:id="rId11" xr:uid="{666EB2C1-2589-4797-9885-297C065F192B}"/>
+    <hyperlink ref="E9" r:id="rId12" xr:uid="{D455A452-7119-48E9-9ECF-209E1BA499A7}"/>
+    <hyperlink ref="D10" r:id="rId13" xr:uid="{20C0F736-D427-44AD-9DF4-30A51B71B5DE}"/>
+    <hyperlink ref="E10" r:id="rId14" xr:uid="{4111B800-DED4-45DE-B5D4-EF408009E366}"/>
+    <hyperlink ref="D15" r:id="rId15" xr:uid="{7126E360-8185-49FE-9521-994CBFFCA701}"/>
+    <hyperlink ref="D3" r:id="rId16" xr:uid="{670368D0-3C08-42C8-9931-FCB8950780DA}"/>
+    <hyperlink ref="E3" r:id="rId17" xr:uid="{C023DF55-5CBC-430A-BB83-4D1125334262}"/>
+    <hyperlink ref="D16" r:id="rId18" xr:uid="{215B5305-994E-44DA-BA6F-C3BF8F741C46}"/>
+    <hyperlink ref="E16" r:id="rId19" xr:uid="{F3FFEA57-FD74-4364-9E96-145523753350}"/>
+    <hyperlink ref="E11" r:id="rId20" xr:uid="{E6AA74A8-DBA2-4882-A218-6D5506235C5D}"/>
+    <hyperlink ref="D11" r:id="rId21" xr:uid="{26669EB2-0944-4258-BEB0-063B53F33F15}"/>
+    <hyperlink ref="D12" r:id="rId22" xr:uid="{492A9CD7-76F6-493B-B029-EFC426EB9B5C}"/>
+    <hyperlink ref="E12" r:id="rId23" xr:uid="{AA17B945-4805-4668-B197-4C3DC9DBFA3A}"/>
+    <hyperlink ref="D17" r:id="rId24" xr:uid="{1E6989BA-80E4-46E7-B89D-8D9F5949DF99}"/>
+    <hyperlink ref="E17" r:id="rId25" xr:uid="{E0CDF03D-52D6-4A49-9737-CBE14498C7D0}"/>
+    <hyperlink ref="D18" r:id="rId26" xr:uid="{CDE6824D-2885-4459-A9C9-1282DEC492D4}"/>
+    <hyperlink ref="E18" r:id="rId27" xr:uid="{12621A25-001F-4AD9-8A91-4B7B3FE9842B}"/>
+    <hyperlink ref="D13" r:id="rId28" xr:uid="{FC1A99CF-4627-42D2-A645-47CC95578DC9}"/>
+    <hyperlink ref="D14" r:id="rId29" xr:uid="{934DAF92-4E52-4BB2-AEE6-10FFBEE82D7B}"/>
+    <hyperlink ref="E15" r:id="rId30" xr:uid="{B52A9208-5EBC-4201-A143-95E6133633B1}"/>
+    <hyperlink ref="E13" r:id="rId31" xr:uid="{D5A66F75-A858-4781-B06A-196026A0BFBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/Datasheet/ComponentsNeeded.xlsx
+++ b/Datasheet/ComponentsNeeded.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756BAD9B-A929-4D25-917C-5C5EF8AA452D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE59DD72-AD27-45F8-B3F3-C9B3FA2277B3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Component</t>
   </si>
@@ -49,30 +54,6 @@
     <t>https://docs-emea.rs-online.com/webdocs/14b9/0900766b814b9961.pdf</t>
   </si>
   <si>
-    <t>Power supply 12V</t>
-  </si>
-  <si>
-    <t>TEC 2-4822WI</t>
-  </si>
-  <si>
-    <t>https://dk.rs-online.com/web/p/dc-dc-konvertere-isolerende/1742246/</t>
-  </si>
-  <si>
-    <t>https://docs-emea.rs-online.com/webdocs/1638/0900766b81638ef7.pdf</t>
-  </si>
-  <si>
-    <t>Power supply 5V</t>
-  </si>
-  <si>
-    <t>https://dk.rs-online.com/web/p/dc-dc-konvertere-isolerende/1742432/</t>
-  </si>
-  <si>
-    <t>TEC 2-1211</t>
-  </si>
-  <si>
-    <t>https://docs-emea.rs-online.com/webdocs/1638/0900766b81638e71.pdf</t>
-  </si>
-  <si>
     <t>Current Sensor</t>
   </si>
   <si>
@@ -136,12 +117,6 @@
     <t>ACPL-W70L-000E</t>
   </si>
   <si>
-    <t>https://dk.rs-online.com/web/p/optoelektroniske-switches/9226652/</t>
-  </si>
-  <si>
-    <t>Min. number of units</t>
-  </si>
-  <si>
     <t>Protection Diodes</t>
   </si>
   <si>
@@ -169,15 +144,9 @@
     <t>https://docs-emea.rs-online.com/webdocs/1301/0900766b813012df.pdf</t>
   </si>
   <si>
-    <t>FDD86250</t>
-  </si>
-  <si>
     <t>https://dk.rs-online.com/web/p/mosfet-transistorer/7599484/</t>
   </si>
   <si>
-    <t>https://docs-emea.rs-online.com/webdocs/14f6/0900766b814f650c.pdf</t>
-  </si>
-  <si>
     <t>Cfilter</t>
   </si>
   <si>
@@ -196,9 +165,6 @@
     <t>https://dk.rs-online.com/web/p/keramiske-flerlags-kondensatorer/9163096/</t>
   </si>
   <si>
-    <t>https://docs-emea.rs-online.com/webdocs/14e8/0900766b814e8eee.pdf</t>
-  </si>
-  <si>
     <t>TDEX6015/TH</t>
   </si>
   <si>
@@ -214,20 +180,80 @@
     <t>Zenner</t>
   </si>
   <si>
-    <t>BZX84C4V7LT1G</t>
-  </si>
-  <si>
     <t>https://dk.rs-online.com/web/p/zenerdioder/5450624/</t>
   </si>
   <si>
     <t>https://docs-emea.rs-online.com/webdocs/078e/0900766b8078eabb.pdf</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total price</t>
+  </si>
+  <si>
+    <t>TMA 1212S</t>
+  </si>
+  <si>
+    <t>https://docs-emea.rs-online.com/webdocs/153a/0900766b8153aa01.pdf</t>
+  </si>
+  <si>
+    <t>Power Supply 12</t>
+  </si>
+  <si>
+    <t>Power Supply 5</t>
+  </si>
+  <si>
+    <t>https://dk.rs-online.com/web/p/spaendingsregulatorer-lav-dropout/6869381/</t>
+  </si>
+  <si>
+    <t>https://docs-emea.rs-online.com/webdocs/0dbd/0900766b80dbda35.pdf</t>
+  </si>
+  <si>
+    <t>IPB200N15N3GATMA1</t>
+  </si>
+  <si>
+    <t>https://docs-emea.rs-online.com/webdocs/1090/0900766b810908e8.pdf</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>LD1117S50CTR</t>
+  </si>
+  <si>
+    <t>Units needed</t>
+  </si>
+  <si>
+    <t>https://dk.rs-online.com/web/p/optoelektroniske-switches/6936040P/</t>
+  </si>
+  <si>
+    <t>https://docs-emea.rs-online.com/webdocs/14ca/0900766b814cad79.pdf</t>
+  </si>
+  <si>
+    <t>TOTAL PRICE</t>
+  </si>
+  <si>
+    <t>Minimum 25 units (only 1 necessary)</t>
+  </si>
+  <si>
+    <t>Minimum 5 units (only 2 necessary)</t>
+  </si>
+  <si>
+    <t>https://dk.rs-online.com/web/p/dc-dc-konvertere-isolerende/1914988/</t>
+  </si>
+  <si>
+    <t>BZX84C4V7LT1G (4,7V)</t>
+  </si>
+  <si>
+    <t>Units to buy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,11 +290,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -291,16 +312,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -582,341 +601,538 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F18"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.88671875" style="2"/>
+    <col min="13" max="13" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="2">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>16.721</v>
+      </c>
+      <c r="I3" s="2">
+        <f>G3*H3</f>
+        <v>133.768</v>
+      </c>
+      <c r="M3" s="2">
+        <f>SUM(I3:I127)</f>
+        <v>1095.098</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I18" si="0">G4*H4</f>
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>54.25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>36.9</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>110.69999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>28.75</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>33.81</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>67.62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>22.49</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>22.49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>42.4</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>14.55</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>72.75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>40.82</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>40.82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9.73</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>48.650000000000006</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10.31</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>51.550000000000004</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>18.87</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>94.350000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>99.28</v>
+      </c>
+      <c r="I16" s="2">
+        <f>G16*H16</f>
+        <v>99.28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>15.05</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>75.25</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
+      <c r="E18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8">
+      <c r="G18" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2</v>
+      <c r="H18" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{266647AC-2074-42CF-B886-011E46CC184A}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{AE702C93-9D46-4835-B3B4-013D34D30C1E}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{F11744CC-ACC1-4C2E-8816-1C386B3A64A7}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{41F5AF49-4DF6-4405-BB3D-37B4A2FD6861}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{BFA0CFE8-5573-4A98-A5D3-DBA45F3418E6}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{37284CB2-46D7-4A39-8C34-9DC354A81F5A}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{4F3591FC-1A81-4CE0-8CE6-AC32458CACBC}"/>
-    <hyperlink ref="E7" r:id="rId8" xr:uid="{773FDB9D-8032-4F07-8C92-FF8998F02C86}"/>
-    <hyperlink ref="D8" r:id="rId9" xr:uid="{D27EA0F2-5506-43E7-80CE-8B49F6ED100C}"/>
-    <hyperlink ref="E8" r:id="rId10" xr:uid="{CBB3C81D-9A1A-4E49-8814-3424A959548D}"/>
-    <hyperlink ref="D9" r:id="rId11" xr:uid="{666EB2C1-2589-4797-9885-297C065F192B}"/>
-    <hyperlink ref="E9" r:id="rId12" xr:uid="{D455A452-7119-48E9-9ECF-209E1BA499A7}"/>
-    <hyperlink ref="D10" r:id="rId13" xr:uid="{20C0F736-D427-44AD-9DF4-30A51B71B5DE}"/>
-    <hyperlink ref="E10" r:id="rId14" xr:uid="{4111B800-DED4-45DE-B5D4-EF408009E366}"/>
-    <hyperlink ref="D15" r:id="rId15" xr:uid="{7126E360-8185-49FE-9521-994CBFFCA701}"/>
-    <hyperlink ref="D3" r:id="rId16" xr:uid="{670368D0-3C08-42C8-9931-FCB8950780DA}"/>
-    <hyperlink ref="E3" r:id="rId17" xr:uid="{C023DF55-5CBC-430A-BB83-4D1125334262}"/>
-    <hyperlink ref="D16" r:id="rId18" xr:uid="{215B5305-994E-44DA-BA6F-C3BF8F741C46}"/>
-    <hyperlink ref="E16" r:id="rId19" xr:uid="{F3FFEA57-FD74-4364-9E96-145523753350}"/>
-    <hyperlink ref="E11" r:id="rId20" xr:uid="{E6AA74A8-DBA2-4882-A218-6D5506235C5D}"/>
-    <hyperlink ref="D11" r:id="rId21" xr:uid="{26669EB2-0944-4258-BEB0-063B53F33F15}"/>
-    <hyperlink ref="D12" r:id="rId22" xr:uid="{492A9CD7-76F6-493B-B029-EFC426EB9B5C}"/>
-    <hyperlink ref="E12" r:id="rId23" xr:uid="{AA17B945-4805-4668-B197-4C3DC9DBFA3A}"/>
-    <hyperlink ref="D17" r:id="rId24" xr:uid="{1E6989BA-80E4-46E7-B89D-8D9F5949DF99}"/>
-    <hyperlink ref="E17" r:id="rId25" xr:uid="{E0CDF03D-52D6-4A49-9737-CBE14498C7D0}"/>
-    <hyperlink ref="D18" r:id="rId26" xr:uid="{CDE6824D-2885-4459-A9C9-1282DEC492D4}"/>
-    <hyperlink ref="E18" r:id="rId27" xr:uid="{12621A25-001F-4AD9-8A91-4B7B3FE9842B}"/>
-    <hyperlink ref="D13" r:id="rId28" xr:uid="{FC1A99CF-4627-42D2-A645-47CC95578DC9}"/>
-    <hyperlink ref="D14" r:id="rId29" xr:uid="{934DAF92-4E52-4BB2-AEE6-10FFBEE82D7B}"/>
-    <hyperlink ref="E15" r:id="rId30" xr:uid="{B52A9208-5EBC-4201-A143-95E6133633B1}"/>
-    <hyperlink ref="E13" r:id="rId31" xr:uid="{D5A66F75-A858-4781-B06A-196026A0BFBA}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{4F3591FC-1A81-4CE0-8CE6-AC32458CACBC}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{773FDB9D-8032-4F07-8C92-FF8998F02C86}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{D27EA0F2-5506-43E7-80CE-8B49F6ED100C}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{CBB3C81D-9A1A-4E49-8814-3424A959548D}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{666EB2C1-2589-4797-9885-297C065F192B}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{D455A452-7119-48E9-9ECF-209E1BA499A7}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{20C0F736-D427-44AD-9DF4-30A51B71B5DE}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{4111B800-DED4-45DE-B5D4-EF408009E366}"/>
+    <hyperlink ref="D3" r:id="rId11" xr:uid="{670368D0-3C08-42C8-9931-FCB8950780DA}"/>
+    <hyperlink ref="E11" r:id="rId12" xr:uid="{E6AA74A8-DBA2-4882-A218-6D5506235C5D}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{26669EB2-0944-4258-BEB0-063B53F33F15}"/>
+    <hyperlink ref="D12" r:id="rId14" xr:uid="{492A9CD7-76F6-493B-B029-EFC426EB9B5C}"/>
+    <hyperlink ref="E12" r:id="rId15" xr:uid="{AA17B945-4805-4668-B197-4C3DC9DBFA3A}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{1E6989BA-80E4-46E7-B89D-8D9F5949DF99}"/>
+    <hyperlink ref="E17" r:id="rId17" xr:uid="{E0CDF03D-52D6-4A49-9737-CBE14498C7D0}"/>
+    <hyperlink ref="D18" r:id="rId18" xr:uid="{CDE6824D-2885-4459-A9C9-1282DEC492D4}"/>
+    <hyperlink ref="E18" r:id="rId19" xr:uid="{12621A25-001F-4AD9-8A91-4B7B3FE9842B}"/>
+    <hyperlink ref="D13" r:id="rId20" xr:uid="{FC1A99CF-4627-42D2-A645-47CC95578DC9}"/>
+    <hyperlink ref="D14" r:id="rId21" xr:uid="{934DAF92-4E52-4BB2-AEE6-10FFBEE82D7B}"/>
+    <hyperlink ref="E13" r:id="rId22" xr:uid="{D5A66F75-A858-4781-B06A-196026A0BFBA}"/>
+    <hyperlink ref="D5" r:id="rId23" xr:uid="{864377F3-38D6-46B8-B526-93322354F564}"/>
+    <hyperlink ref="E5" r:id="rId24" xr:uid="{6B229CAC-2618-40F1-AFC7-D69264386FFB}"/>
+    <hyperlink ref="E3" r:id="rId25" xr:uid="{501AAA17-414F-433D-BBDE-FE4D2AA23171}"/>
+    <hyperlink ref="D15" r:id="rId26" xr:uid="{BB4823F5-CDC3-4E66-9F62-BF0030625EEC}"/>
+    <hyperlink ref="E15" r:id="rId27" xr:uid="{902FAF40-D9BA-4E26-92AE-578A5C796332}"/>
+    <hyperlink ref="D16" r:id="rId28" xr:uid="{AE71A950-C917-4C36-AA47-1D12BCBB70C8}"/>
+    <hyperlink ref="E16" r:id="rId29" xr:uid="{E0BCFE4A-5152-46A9-AFEC-24D0F5E20D62}"/>
+    <hyperlink ref="D6" r:id="rId30" xr:uid="{C4B778CA-1225-4FD6-B93F-892D7F9D59E9}"/>
+    <hyperlink ref="E6" r:id="rId31" xr:uid="{6FE4C3BC-A660-4AEC-BCA8-4351D76C88E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId32"/>

--- a/Datasheet/ComponentsNeeded.xlsx
+++ b/Datasheet/ComponentsNeeded.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE59DD72-AD27-45F8-B3F3-C9B3FA2277B3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A1E498B0-8947-4099-B259-B354E6308F34}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>Component</t>
   </si>
@@ -247,13 +242,64 @@
   </si>
   <si>
     <t>Units to buy</t>
+  </si>
+  <si>
+    <t>759-9484</t>
+  </si>
+  <si>
+    <t>920-9830</t>
+  </si>
+  <si>
+    <t>686-9381</t>
+  </si>
+  <si>
+    <t>191-4988</t>
+  </si>
+  <si>
+    <t>866-0764</t>
+  </si>
+  <si>
+    <t>768-7893</t>
+  </si>
+  <si>
+    <t>534-4175</t>
+  </si>
+  <si>
+    <t>545-0624</t>
+  </si>
+  <si>
+    <t>742-7859</t>
+  </si>
+  <si>
+    <t>315-1101</t>
+  </si>
+  <si>
+    <t>871-4035</t>
+  </si>
+  <si>
+    <t>500-2376</t>
+  </si>
+  <si>
+    <t>916-3096</t>
+  </si>
+  <si>
+    <t>693-6040P</t>
+  </si>
+  <si>
+    <t>158-562</t>
+  </si>
+  <si>
+    <t>818-4370</t>
+  </si>
+  <si>
+    <t>Product Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +336,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -320,9 +372,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -601,29 +656,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M18"/>
+  <dimension ref="A2:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.9453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.89453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.89453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7890625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.88671875" style="2"/>
-    <col min="13" max="13" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="12.20703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.89453125" style="2"/>
+    <col min="13" max="13" width="11.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.89453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A2" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -655,7 +713,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -686,7 +747,10 @@
         <v>1095.098</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -713,7 +777,10 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>58</v>
       </c>
@@ -743,7 +810,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>57</v>
       </c>
@@ -770,7 +840,10 @@
         <v>110.69999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -797,7 +870,10 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -824,7 +900,10 @@
         <v>67.62</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -851,7 +930,10 @@
         <v>22.49</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -878,7 +960,10 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
@@ -905,7 +990,10 @@
         <v>72.75</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
@@ -932,7 +1020,10 @@
         <v>40.82</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -962,7 +1053,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
@@ -989,7 +1083,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1016,7 +1113,10 @@
         <v>94.350000000000009</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1043,7 +1143,10 @@
         <v>99.28</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1073,7 +1176,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>

--- a/Datasheet/ComponentsNeeded.xlsx
+++ b/Datasheet/ComponentsNeeded.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A1E498B0-8947-4099-B259-B354E6308F34}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F8729CDC-C7D1-443B-9DD4-846922E9B1CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,9 +139,6 @@
     <t>https://docs-emea.rs-online.com/webdocs/1301/0900766b813012df.pdf</t>
   </si>
   <si>
-    <t>https://dk.rs-online.com/web/p/mosfet-transistorer/7599484/</t>
-  </si>
-  <si>
     <t>Cfilter</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>Units to buy</t>
   </si>
   <si>
-    <t>759-9484</t>
-  </si>
-  <si>
     <t>920-9830</t>
   </si>
   <si>
@@ -293,6 +287,12 @@
   </si>
   <si>
     <t>Product Number</t>
+  </si>
+  <si>
+    <t>754-5443</t>
+  </si>
+  <si>
+    <t>https://dk.rs-online.com/web/p/mosfet-transistorer/7545443/</t>
   </si>
 </sst>
 </file>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -680,7 +680,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A2" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -695,39 +695,39 @@
         <v>3</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -779,19 +779,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -807,24 +807,24 @@
         <v>54.25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
@@ -1022,19 +1022,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
@@ -1050,21 +1050,21 @@
         <v>48.650000000000006</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -1080,12 +1080,12 @@
         <v>51.550000000000004</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -1094,10 +1094,10 @@
         <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="F15" s="2">
         <v>4</v>
@@ -1115,19 +1115,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -1145,13 +1145,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>37</v>
@@ -1173,24 +1173,24 @@
         <v>75.25</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="F18" s="2">
         <v>2</v>
@@ -1218,27 +1218,27 @@
     <hyperlink ref="E9" r:id="rId8" xr:uid="{D455A452-7119-48E9-9ECF-209E1BA499A7}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{20C0F736-D427-44AD-9DF4-30A51B71B5DE}"/>
     <hyperlink ref="E10" r:id="rId10" xr:uid="{4111B800-DED4-45DE-B5D4-EF408009E366}"/>
-    <hyperlink ref="D3" r:id="rId11" xr:uid="{670368D0-3C08-42C8-9931-FCB8950780DA}"/>
-    <hyperlink ref="E11" r:id="rId12" xr:uid="{E6AA74A8-DBA2-4882-A218-6D5506235C5D}"/>
-    <hyperlink ref="D11" r:id="rId13" xr:uid="{26669EB2-0944-4258-BEB0-063B53F33F15}"/>
-    <hyperlink ref="D12" r:id="rId14" xr:uid="{492A9CD7-76F6-493B-B029-EFC426EB9B5C}"/>
-    <hyperlink ref="E12" r:id="rId15" xr:uid="{AA17B945-4805-4668-B197-4C3DC9DBFA3A}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{1E6989BA-80E4-46E7-B89D-8D9F5949DF99}"/>
-    <hyperlink ref="E17" r:id="rId17" xr:uid="{E0CDF03D-52D6-4A49-9737-CBE14498C7D0}"/>
-    <hyperlink ref="D18" r:id="rId18" xr:uid="{CDE6824D-2885-4459-A9C9-1282DEC492D4}"/>
-    <hyperlink ref="E18" r:id="rId19" xr:uid="{12621A25-001F-4AD9-8A91-4B7B3FE9842B}"/>
-    <hyperlink ref="D13" r:id="rId20" xr:uid="{FC1A99CF-4627-42D2-A645-47CC95578DC9}"/>
-    <hyperlink ref="D14" r:id="rId21" xr:uid="{934DAF92-4E52-4BB2-AEE6-10FFBEE82D7B}"/>
-    <hyperlink ref="E13" r:id="rId22" xr:uid="{D5A66F75-A858-4781-B06A-196026A0BFBA}"/>
-    <hyperlink ref="D5" r:id="rId23" xr:uid="{864377F3-38D6-46B8-B526-93322354F564}"/>
-    <hyperlink ref="E5" r:id="rId24" xr:uid="{6B229CAC-2618-40F1-AFC7-D69264386FFB}"/>
-    <hyperlink ref="E3" r:id="rId25" xr:uid="{501AAA17-414F-433D-BBDE-FE4D2AA23171}"/>
-    <hyperlink ref="D15" r:id="rId26" xr:uid="{BB4823F5-CDC3-4E66-9F62-BF0030625EEC}"/>
-    <hyperlink ref="E15" r:id="rId27" xr:uid="{902FAF40-D9BA-4E26-92AE-578A5C796332}"/>
-    <hyperlink ref="D16" r:id="rId28" xr:uid="{AE71A950-C917-4C36-AA47-1D12BCBB70C8}"/>
-    <hyperlink ref="E16" r:id="rId29" xr:uid="{E0BCFE4A-5152-46A9-AFEC-24D0F5E20D62}"/>
-    <hyperlink ref="D6" r:id="rId30" xr:uid="{C4B778CA-1225-4FD6-B93F-892D7F9D59E9}"/>
-    <hyperlink ref="E6" r:id="rId31" xr:uid="{6FE4C3BC-A660-4AEC-BCA8-4351D76C88E6}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{E6AA74A8-DBA2-4882-A218-6D5506235C5D}"/>
+    <hyperlink ref="D11" r:id="rId12" xr:uid="{26669EB2-0944-4258-BEB0-063B53F33F15}"/>
+    <hyperlink ref="D12" r:id="rId13" xr:uid="{492A9CD7-76F6-493B-B029-EFC426EB9B5C}"/>
+    <hyperlink ref="E12" r:id="rId14" xr:uid="{AA17B945-4805-4668-B197-4C3DC9DBFA3A}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{1E6989BA-80E4-46E7-B89D-8D9F5949DF99}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{E0CDF03D-52D6-4A49-9737-CBE14498C7D0}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{CDE6824D-2885-4459-A9C9-1282DEC492D4}"/>
+    <hyperlink ref="E18" r:id="rId18" xr:uid="{12621A25-001F-4AD9-8A91-4B7B3FE9842B}"/>
+    <hyperlink ref="D13" r:id="rId19" xr:uid="{FC1A99CF-4627-42D2-A645-47CC95578DC9}"/>
+    <hyperlink ref="D14" r:id="rId20" xr:uid="{934DAF92-4E52-4BB2-AEE6-10FFBEE82D7B}"/>
+    <hyperlink ref="E13" r:id="rId21" xr:uid="{D5A66F75-A858-4781-B06A-196026A0BFBA}"/>
+    <hyperlink ref="D5" r:id="rId22" xr:uid="{864377F3-38D6-46B8-B526-93322354F564}"/>
+    <hyperlink ref="E5" r:id="rId23" xr:uid="{6B229CAC-2618-40F1-AFC7-D69264386FFB}"/>
+    <hyperlink ref="E3" r:id="rId24" xr:uid="{501AAA17-414F-433D-BBDE-FE4D2AA23171}"/>
+    <hyperlink ref="D15" r:id="rId25" xr:uid="{BB4823F5-CDC3-4E66-9F62-BF0030625EEC}"/>
+    <hyperlink ref="E15" r:id="rId26" xr:uid="{902FAF40-D9BA-4E26-92AE-578A5C796332}"/>
+    <hyperlink ref="D16" r:id="rId27" xr:uid="{AE71A950-C917-4C36-AA47-1D12BCBB70C8}"/>
+    <hyperlink ref="E16" r:id="rId28" xr:uid="{E0BCFE4A-5152-46A9-AFEC-24D0F5E20D62}"/>
+    <hyperlink ref="D6" r:id="rId29" xr:uid="{C4B778CA-1225-4FD6-B93F-892D7F9D59E9}"/>
+    <hyperlink ref="E6" r:id="rId30" xr:uid="{6FE4C3BC-A660-4AEC-BCA8-4351D76C88E6}"/>
+    <hyperlink ref="D3" r:id="rId31" xr:uid="{2D03A5D4-F06E-4255-A8EC-BFC8EFB63B7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId32"/>
